--- a/SchedulingData/dynamic13/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_3.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.90000000000001</v>
+        <v>83.36</v>
       </c>
       <c r="E2" t="n">
-        <v>25.84</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
@@ -485,131 +485,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.16</v>
+        <v>44.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.464</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.56</v>
+        <v>96.66</v>
       </c>
       <c r="E4" t="n">
-        <v>27.504</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>83.36</v>
       </c>
       <c r="D5" t="n">
-        <v>88.52</v>
+        <v>143.54</v>
       </c>
       <c r="E5" t="n">
-        <v>26.308</v>
+        <v>22.896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="D6" t="n">
-        <v>47.3</v>
+        <v>111.36</v>
       </c>
       <c r="E6" t="n">
-        <v>26.96</v>
+        <v>22.684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>137.84</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>21.976</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88.52</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>146.3</v>
+        <v>47.3</v>
       </c>
       <c r="E8" t="n">
-        <v>23.14</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>106.36</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>24.144</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="10">
@@ -618,302 +618,302 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>96.66</v>
       </c>
       <c r="D10" t="n">
-        <v>42.2</v>
+        <v>144.66</v>
       </c>
       <c r="E10" t="n">
-        <v>26.48</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>42.2</v>
+        <v>111.36</v>
       </c>
       <c r="D11" t="n">
-        <v>82.90000000000001</v>
+        <v>200.86</v>
       </c>
       <c r="E11" t="n">
-        <v>24.04</v>
+        <v>17.824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.16</v>
+        <v>144.66</v>
       </c>
       <c r="D12" t="n">
-        <v>115.32</v>
+        <v>199.56</v>
       </c>
       <c r="E12" t="n">
-        <v>22.768</v>
+        <v>18.944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106.36</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>176.26</v>
+        <v>128.32</v>
       </c>
       <c r="E13" t="n">
-        <v>19.284</v>
+        <v>21.948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>137.84</v>
+        <v>199.56</v>
       </c>
       <c r="D14" t="n">
-        <v>209.64</v>
+        <v>246.86</v>
       </c>
       <c r="E14" t="n">
-        <v>17.896</v>
+        <v>15.344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>82.90000000000001</v>
+        <v>128.32</v>
       </c>
       <c r="D15" t="n">
-        <v>130.34</v>
+        <v>178.26</v>
       </c>
       <c r="E15" t="n">
-        <v>20.916</v>
+        <v>18.084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>176.26</v>
+        <v>143.54</v>
       </c>
       <c r="D16" t="n">
-        <v>259.38</v>
+        <v>197.54</v>
       </c>
       <c r="E16" t="n">
-        <v>15.072</v>
+        <v>20.096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>209.64</v>
+        <v>47.3</v>
       </c>
       <c r="D17" t="n">
-        <v>269.54</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>15.036</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>146.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>197.9</v>
+        <v>129.48</v>
       </c>
       <c r="E18" t="n">
-        <v>19.6</v>
+        <v>22.832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>197.9</v>
+        <v>200.86</v>
       </c>
       <c r="D19" t="n">
-        <v>246.16</v>
+        <v>250.56</v>
       </c>
       <c r="E19" t="n">
-        <v>15.904</v>
+        <v>14.964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>130.34</v>
+        <v>178.26</v>
       </c>
       <c r="D20" t="n">
-        <v>169.72</v>
+        <v>216.66</v>
       </c>
       <c r="E20" t="n">
-        <v>18.108</v>
+        <v>15.884</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>115.32</v>
+        <v>197.54</v>
       </c>
       <c r="D21" t="n">
-        <v>156.26</v>
+        <v>243.6</v>
       </c>
       <c r="E21" t="n">
-        <v>19.804</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>246.16</v>
+        <v>243.6</v>
       </c>
       <c r="D22" t="n">
-        <v>300.74</v>
+        <v>296.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.576</v>
+        <v>14.476</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>269.54</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>349.38</v>
+        <v>147.64</v>
       </c>
       <c r="E23" t="n">
-        <v>11.172</v>
+        <v>20.656</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>51.56</v>
+        <v>147.64</v>
       </c>
       <c r="D24" t="n">
-        <v>106.16</v>
+        <v>194.34</v>
       </c>
       <c r="E24" t="n">
-        <v>23.664</v>
+        <v>17.116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>169.72</v>
+        <v>250.56</v>
       </c>
       <c r="D25" t="n">
-        <v>219.52</v>
+        <v>290.46</v>
       </c>
       <c r="E25" t="n">
-        <v>15.248</v>
+        <v>12.104</v>
       </c>
     </row>
     <row r="26">
@@ -922,74 +922,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>106.16</v>
+        <v>129.48</v>
       </c>
       <c r="D26" t="n">
-        <v>152.22</v>
+        <v>187.26</v>
       </c>
       <c r="E26" t="n">
-        <v>20.188</v>
+        <v>19.664</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>219.52</v>
+        <v>290.46</v>
       </c>
       <c r="D27" t="n">
-        <v>310.82</v>
+        <v>337.34</v>
       </c>
       <c r="E27" t="n">
-        <v>11.228</v>
+        <v>9.036</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>349.38</v>
+        <v>187.26</v>
       </c>
       <c r="D28" t="n">
-        <v>415.14</v>
+        <v>263.96</v>
       </c>
       <c r="E28" t="n">
-        <v>7.196</v>
+        <v>15.584</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>156.26</v>
+        <v>296.14</v>
       </c>
       <c r="D29" t="n">
-        <v>226.58</v>
+        <v>362.1</v>
       </c>
       <c r="E29" t="n">
-        <v>16.892</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>152.22</v>
+        <v>263.96</v>
       </c>
       <c r="D30" t="n">
-        <v>202.12</v>
+        <v>321.88</v>
       </c>
       <c r="E30" t="n">
-        <v>16.828</v>
+        <v>12.412</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>259.38</v>
+        <v>194.34</v>
       </c>
       <c r="D31" t="n">
-        <v>311.94</v>
+        <v>239.02</v>
       </c>
       <c r="E31" t="n">
-        <v>11.936</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>310.82</v>
+        <v>362.1</v>
       </c>
       <c r="D32" t="n">
-        <v>382.62</v>
+        <v>416.48</v>
       </c>
       <c r="E32" t="n">
-        <v>7.628</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>311.94</v>
+        <v>216.66</v>
       </c>
       <c r="D33" t="n">
-        <v>372.14</v>
+        <v>256.12</v>
       </c>
       <c r="E33" t="n">
-        <v>9.055999999999999</v>
+        <v>13.068</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>202.12</v>
+        <v>321.88</v>
       </c>
       <c r="D34" t="n">
-        <v>262.32</v>
+        <v>387.62</v>
       </c>
       <c r="E34" t="n">
-        <v>13.448</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>300.74</v>
+        <v>256.12</v>
       </c>
       <c r="D35" t="n">
-        <v>329.14</v>
+        <v>337.12</v>
       </c>
       <c r="E35" t="n">
-        <v>10.376</v>
+        <v>9.548</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>372.14</v>
+        <v>337.34</v>
       </c>
       <c r="D36" t="n">
-        <v>409.22</v>
+        <v>372.54</v>
       </c>
       <c r="E36" t="n">
-        <v>5.988</v>
+        <v>6.156</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>329.14</v>
+        <v>239.02</v>
       </c>
       <c r="D37" t="n">
-        <v>388.34</v>
+        <v>297.28</v>
       </c>
       <c r="E37" t="n">
-        <v>7.576</v>
+        <v>10.092</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>262.32</v>
+        <v>337.12</v>
       </c>
       <c r="D38" t="n">
-        <v>329.84</v>
+        <v>377.54</v>
       </c>
       <c r="E38" t="n">
-        <v>10.276</v>
+        <v>6.636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>329.84</v>
+        <v>246.86</v>
       </c>
       <c r="D39" t="n">
-        <v>379.04</v>
+        <v>306.96</v>
       </c>
       <c r="E39" t="n">
-        <v>6.496</v>
+        <v>11.964</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>382.62</v>
+        <v>306.96</v>
       </c>
       <c r="D40" t="n">
-        <v>424.38</v>
+        <v>369.62</v>
       </c>
       <c r="E40" t="n">
-        <v>4.092</v>
+        <v>8.827999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>226.58</v>
+        <v>297.28</v>
       </c>
       <c r="D41" t="n">
-        <v>306.86</v>
+        <v>363.58</v>
       </c>
       <c r="E41" t="n">
-        <v>13.484</v>
+        <v>6.072</v>
       </c>
     </row>
   </sheetData>
